--- a/Aplikasi Skripsi/Data Scrap/Prabowo_JanFeb (Done).xlsx
+++ b/Aplikasi Skripsi/Data Scrap/Prabowo_JanFeb (Done).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Aplikasi Skripsi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Aplikasi Skripsi\Data Scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9054F3EF-CD09-497F-A81D-8284564833FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBFD510-E43E-4BAE-B257-928A1E45AC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9A5D3590-A0B3-40B4-A1A5-B2BD406A8D7B}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2932" uniqueCount="2919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="2889">
   <si>
     <t>Sentiment</t>
   </si>
@@ -11961,126 +11961,6 @@
   </si>
   <si>
     <t>Ia mengungkapkan bahwa bendera 'Prabowo Presiden 2024' dibuat mengingat di internal Gerindra,    Prabowo Subianto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prabowo Subianto Didoakan Jadi Presiden Usai Kurban Sapi 1 Ton di Pekanbaru
-Prabowo Subianto
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerindra Rapimnas 30 Juli: Prabowo Presiden, Gerindra Menang
-Prabowo Subianto
-  </t>
-  </si>
-  <si>
-    <t>Mesin sudah panas, dan kami siap bekerja keras turun ke bawah untuk memenangkan Gerindra dan Pak Prabowo Presiden," tegasnya.
-  Prabowo Subianto</t>
-  </si>
-  <si>
-    <t>Dalam lantunan doanya, Muhammad Syafii berdoa agar Prabowo Subianto dapat memenangkan Pemilu 2024 dan menjadi Presiden Republik Indonesia.   Prabowo Subianto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presiden Jokowi Yakinkan Gerindra dan Prabowo Subianto Bisa Raih Top Elektabilitas, Ini Respon Novita </t>
-  </si>
-  <si>
-    <t>Apakah rakyat kita sudah menikmati kekayaan itu? Itu sebabnya Gerindra ingin Prabowo presiden 2024.   Prabowo Subianto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datang ke Puncak 1 Abad NU, Prabowo Subianto Dielu-elukan Nahdliyin The Next Presiden
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerindra: Prabowo Subianto Dihormati Dunia, Jadi Presiden Indonesia Lebih Baik
-  </t>
-  </si>
-  <si>
-    <t>Di antaranya terlihat emak-emak histeris meneteskan air mata mendoakan Prabowo Subianto menjadi Presiden pada 2024.
-  Prabowo Subianto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asrinaldi meyakini loyalis Prabowo Subianto masih ada di Sumbar yang tetap setia mendukungnya dalam pemilihan presiden tahun depan. 
-Prabowo Subianto
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">menempatkan Ketua Umum Partai Gerindra Prabowo Subianto pada peringkat pertama dalam bursa calon presiden (capres) dengan elektabilitas 25 persen.
-Prabowo Subianto
-</t>
-  </si>
-  <si>
-    <t>Menurut dia, duet Prabowo-Ganjar pada Pilpres 2024 banyak disuarakan, termasuk saat Musyawarah Rakyat (Musra) Indonesia XVII Jawa Tengah di Kota Semarang yang diikuti 17 organisasi pendukung Presiden Joko Widodo.
-  Prabowo Subianto</t>
-  </si>
-  <si>
-    <t>"Kami mendukung Pak Prabowo Subianto untuk dipilih kembali sebagai presiden Persilat. 
-  Prabowo Subianto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seluruh presiden federasi nasional yang hadir juga menyatakan mendukung penuh kepemimpinan Prabowo Subianto.
- </t>
-  </si>
-  <si>
-    <t>Kami para kader tetap optimistis survei Pak Prabowo Subianto selalu tinggi, minimal selalu di nomor urut dua, bahkan juga ada teratas," jelas Presiden LSN ini.
-  Prabowo Subianto</t>
-  </si>
-  <si>
-    <t>"Urusan hasil survei yang menyebut pendukung Pak Prabowo Subianto pindah ke (calon presiden) lainnya hanyalah dinamika politik saja. 
-  Prabowo Subianto</t>
-  </si>
-  <si>
-    <t>Muzin menyatakan jika Prabowo Subianto menjadi Presiden yang menang bukan Gerindra tapi Rakyat Indonesia
-  Prabowo Subianto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Presiden selanjutnya," teriak warga yang lain.  Prabowo Subianto  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pak, Pak Prabowo presiden!," teriak warga.  Prabowo Subianto  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warga NU bahkan berulang kali meneriakkan 'Prabowo presiden'.  Prabowo yang saat itu berada di depan pintu 10 Stadion hanya tersenyum dan melambaikan tangan kepada warga yang terus berteriak namanya.  Prabowo Subianto  </t>
-  </si>
-  <si>
-    <t>Andre menilai pernyataan Cak Nun menunjukkan kalau Prabowo Subianto, merupakan calon presiden paling tepat.
-  Prabowo Subianto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emang terbaik, Bapak Presiden Joko Widodo mengatakan, elektabilitas Menhan RI Prabowo Subianto berpotensi menjadi yang tertinggi.
-MendingPrabowo
-TerusMajuBersamaPrabowo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mantab, Bapak Presiden Joko Widodo mengatakan, elektabilitas Menhan RI Prabowo Subianto berpotensi menjadi yang tertinggi.
-MendingPrabowo
-TerusMajuBersamaPrabowo </t>
-  </si>
-  <si>
-    <t>"Karena itu wahai Allah beri kemudahan kepasa Bapak Prabowo Subianto dengan dukungan Partai Gerindra dengan seluruh bangsa Indonesia agar di 2024 Bapak Prabowo menjadi Presiden RI," kata Muhammad Syafii saat membacakan doa.
-  Prabowo Subianto</t>
-  </si>
-  <si>
-    <t>"Prabowo presiden!” ucap para kader kompak.
-  Prabowo Subianto</t>
-  </si>
-  <si>
-    <t>Teriakkan 'Prabowo Presiden' terus menggema hingga ia menaiki podium untuk memberikan sambutan. Saat melangkah maju, para kader pun berdiri sambil berteriak
-  Prabowo Subianto</t>
-  </si>
-  <si>
-    <t>Ketua Umum Partai Gerindra Prabowo Subianto menyatakan kesiapannya menjadi calon presiden (capres) pada Pilpres 2024 mendatang.
-   Prabowo Subianto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ketua Umum Partai Gerindra Prabowo Subianto berada di posisi puncak sebagai calon presiden (capres) hasil Musyawarah Rakyat (Musra) Indonesia relawan Joko Widodo (Jokowi) XVI di Yogyakarta, Minggu (28/1/2023).   Prabowo Subianto
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Prabowo Presiden," teriak nahdliyin lain.
-Prabowo Subianto  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Presiden selanjutnya," teriak nahdliyin.
-Prabowo Subianto  </t>
   </si>
 </sst>
 </file>
@@ -12455,10 +12335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA2B100-227F-4ED7-A8D8-8DFB9F45F6D4}">
-  <dimension ref="A1:B2931"/>
+  <dimension ref="A1:B2901"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2901" sqref="A2:A2901"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35671,246 +35551,6 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="2902" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2902">
-        <v>1</v>
-      </c>
-      <c r="B2902" t="s">
-        <v>2889</v>
-      </c>
-    </row>
-    <row r="2903" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2903">
-        <v>1</v>
-      </c>
-      <c r="B2903" t="s">
-        <v>2890</v>
-      </c>
-    </row>
-    <row r="2904" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2904">
-        <v>1</v>
-      </c>
-      <c r="B2904" t="s">
-        <v>2891</v>
-      </c>
-    </row>
-    <row r="2905" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2905">
-        <v>1</v>
-      </c>
-      <c r="B2905" t="s">
-        <v>2892</v>
-      </c>
-    </row>
-    <row r="2906" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2906">
-        <v>0</v>
-      </c>
-      <c r="B2906" t="s">
-        <v>2893</v>
-      </c>
-    </row>
-    <row r="2907" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2907">
-        <v>1</v>
-      </c>
-      <c r="B2907" t="s">
-        <v>2894</v>
-      </c>
-    </row>
-    <row r="2908" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2908">
-        <v>1</v>
-      </c>
-      <c r="B2908" t="s">
-        <v>2895</v>
-      </c>
-    </row>
-    <row r="2909" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2909">
-        <v>1</v>
-      </c>
-      <c r="B2909" t="s">
-        <v>2896</v>
-      </c>
-    </row>
-    <row r="2910" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2910">
-        <v>1</v>
-      </c>
-      <c r="B2910" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="2911" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2911">
-        <v>1</v>
-      </c>
-      <c r="B2911" t="s">
-        <v>2898</v>
-      </c>
-    </row>
-    <row r="2912" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2912">
-        <v>0</v>
-      </c>
-      <c r="B2912" t="s">
-        <v>2899</v>
-      </c>
-    </row>
-    <row r="2913" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2913">
-        <v>1</v>
-      </c>
-      <c r="B2913" t="s">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="2914" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2914">
-        <v>1</v>
-      </c>
-      <c r="B2914" t="s">
-        <v>2901</v>
-      </c>
-    </row>
-    <row r="2915" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2915">
-        <v>1</v>
-      </c>
-      <c r="B2915" t="s">
-        <v>2902</v>
-      </c>
-    </row>
-    <row r="2916" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2916">
-        <v>0</v>
-      </c>
-      <c r="B2916" t="s">
-        <v>2903</v>
-      </c>
-    </row>
-    <row r="2917" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2917">
-        <v>0</v>
-      </c>
-      <c r="B2917" t="s">
-        <v>2904</v>
-      </c>
-    </row>
-    <row r="2918" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2918">
-        <v>1</v>
-      </c>
-      <c r="B2918" t="s">
-        <v>2905</v>
-      </c>
-    </row>
-    <row r="2919" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2919">
-        <v>1</v>
-      </c>
-      <c r="B2919" t="s">
-        <v>2906</v>
-      </c>
-    </row>
-    <row r="2920" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2920">
-        <v>1</v>
-      </c>
-      <c r="B2920" t="s">
-        <v>2907</v>
-      </c>
-    </row>
-    <row r="2921" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2921">
-        <v>1</v>
-      </c>
-      <c r="B2921" t="s">
-        <v>2908</v>
-      </c>
-    </row>
-    <row r="2922" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2922">
-        <v>1</v>
-      </c>
-      <c r="B2922" t="s">
-        <v>2909</v>
-      </c>
-    </row>
-    <row r="2923" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2923">
-        <v>0</v>
-      </c>
-      <c r="B2923" t="s">
-        <v>2910</v>
-      </c>
-    </row>
-    <row r="2924" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2924">
-        <v>0</v>
-      </c>
-      <c r="B2924" t="s">
-        <v>2911</v>
-      </c>
-    </row>
-    <row r="2925" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2925">
-        <v>1</v>
-      </c>
-      <c r="B2925" t="s">
-        <v>2912</v>
-      </c>
-    </row>
-    <row r="2926" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2926">
-        <v>1</v>
-      </c>
-      <c r="B2926" t="s">
-        <v>2913</v>
-      </c>
-    </row>
-    <row r="2927" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2927">
-        <v>1</v>
-      </c>
-      <c r="B2927" t="s">
-        <v>2914</v>
-      </c>
-    </row>
-    <row r="2928" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2928">
-        <v>1</v>
-      </c>
-      <c r="B2928" t="s">
-        <v>2915</v>
-      </c>
-    </row>
-    <row r="2929" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2929">
-        <v>1</v>
-      </c>
-      <c r="B2929" t="s">
-        <v>2916</v>
-      </c>
-    </row>
-    <row r="2930" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2930">
-        <v>1</v>
-      </c>
-      <c r="B2930" t="s">
-        <v>2917</v>
-      </c>
-    </row>
-    <row r="2931" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2931">
-        <v>1</v>
-      </c>
-      <c r="B2931" t="s">
-        <v>2918</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Aplikasi Skripsi/Data Scrap/Prabowo_JanFeb (Done).xlsx
+++ b/Aplikasi Skripsi/Data Scrap/Prabowo_JanFeb (Done).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Aplikasi Skripsi\Data Scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314C6314-B341-4D04-A38D-E90D609258AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FCF866-3036-40BD-97DA-4A1A670815ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9A5D3590-A0B3-40B4-A1A5-B2BD406A8D7B}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8711" uniqueCount="2896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8705" uniqueCount="2893">
   <si>
     <t>Sentiment</t>
   </si>
@@ -11973,15 +11973,6 @@
   </si>
   <si>
     <t>Bulan 3</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>Netral</t>
-  </si>
-  <si>
-    <t>Negative</t>
   </si>
 </sst>
 </file>
@@ -12371,10 +12362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA2B100-227F-4ED7-A8D8-8DFB9F45F6D4}">
-  <dimension ref="A1:D4357"/>
+  <dimension ref="A1:C4352"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4344" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4354" sqref="A4354:D4357"/>
+      <selection activeCell="C4356" sqref="C4356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60251,68 +60242,6 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="4354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4354" t="s">
-        <v>2893</v>
-      </c>
-      <c r="C4354" t="s">
-        <v>2894</v>
-      </c>
-      <c r="D4354" t="s">
-        <v>2895</v>
-      </c>
-    </row>
-    <row r="4355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4355" t="s">
-        <v>2890</v>
-      </c>
-      <c r="B4355">
-        <f>COUNTIFS($A$2:$A$4352, $A4355, $B$2:$B$4352, 1)</f>
-        <v>1143</v>
-      </c>
-      <c r="C4355">
-        <f>COUNTIFS($A$2:$A$4352, $A4355, $B$2:$B$4352, 0)</f>
-        <v>283</v>
-      </c>
-      <c r="D4355">
-        <f>COUNTIFS($A$2:$A$4352, $A4355, $B$2:$B$4352, -1)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4356" t="s">
-        <v>2891</v>
-      </c>
-      <c r="B4356">
-        <f t="shared" ref="B4356:B4357" si="0">COUNTIFS($A$2:$A$4352, $A4356, $B$2:$B$4352, 1)</f>
-        <v>1288</v>
-      </c>
-      <c r="C4356">
-        <f t="shared" ref="C4356:C4357" si="1">COUNTIFS($A$2:$A$4352, $A4356, $B$2:$B$4352, 0)</f>
-        <v>165</v>
-      </c>
-      <c r="D4356">
-        <f t="shared" ref="D4356:D4357" si="2">COUNTIFS($A$2:$A$4352, $A4356, $B$2:$B$4352, -1)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4357" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4357" t="s">
-        <v>2892</v>
-      </c>
-      <c r="B4357">
-        <f t="shared" si="0"/>
-        <v>1139</v>
-      </c>
-      <c r="C4357">
-        <f t="shared" si="1"/>
-        <v>306</v>
-      </c>
-      <c r="D4357">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:C4352" xr:uid="{4BA2B100-227F-4ED7-A8D8-8DFB9F45F6D4}"/>
   <phoneticPr fontId="3" type="noConversion"/>
